--- a/app/shiny/templates/template_dropshipment.xlsx
+++ b/app/shiny/templates/template_dropshipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alibrown\Documents\ppe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alibrown\Documents\ppe\distribute_12-11-2020\next_cycle_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1957C-BEB7-401C-972E-A23380DD4D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B98CA0-5F87-46C2-94FE-1A330E0664E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2220" windowWidth="14220" windowHeight="9450" xr2:uid="{923FFECB-4A25-480B-9F4B-77073757D37B}"/>
+    <workbookView xWindow="6180" yWindow="4575" windowWidth="15585" windowHeight="9735" xr2:uid="{923FFECB-4A25-480B-9F4B-77073757D37B}"/>
   </bookViews>
   <sheets>
     <sheet name="WA#_Agency" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -98,9 +98,6 @@
     <t>nitrile gloves, keeney large - 100 per box</t>
   </si>
   <si>
-    <t>Order Time: 9/4/2020</t>
-  </si>
-  <si>
     <t>[Delivery Point of Contact (POC)]</t>
   </si>
   <si>
@@ -117,6 +114,15 @@
   </si>
   <si>
     <t>[Requestor Name]</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Delivered By:</t>
+  </si>
+  <si>
+    <t>Order Time: 12/11/2020</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +588,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,7 +645,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -652,7 +658,9 @@
       <c r="C12" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>

--- a/app/shiny/templates/template_dropshipment.xlsx
+++ b/app/shiny/templates/template_dropshipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alibrown\Documents\ppe\distribute_12-11-2020\next_cycle_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\GitHub\ppe_allocatoR\app\shiny\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B98CA0-5F87-46C2-94FE-1A330E0664E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F930DCF-17C5-41CB-9777-436813F220FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="4575" windowWidth="15585" windowHeight="9735" xr2:uid="{923FFECB-4A25-480B-9F4B-77073757D37B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{923FFECB-4A25-480B-9F4B-77073757D37B}"/>
   </bookViews>
   <sheets>
     <sheet name="WA#_Agency" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>Delivered By:</t>
   </si>
   <si>
-    <t>Order Time: 12/11/2020</t>
+    <t>Order Time: 1/22/2021</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,11 +239,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -259,7 +266,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5A23C8D-B7C2-4941-A49F-2B3576CCCA85}" name="Table27" displayName="Table27" ref="A16:E21" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Line"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Line" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Item"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Quantity"/>
@@ -568,30 +575,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3FA63A-2A70-4AB1-86F6-D1E6A018A4A0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -599,7 +607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -607,7 +615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -615,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -623,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -631,7 +639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -639,7 +647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -650,14 +658,14 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -667,14 +675,14 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -691,8 +699,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
         <v>1</v>
       </c>
       <c r="B17" t="s">
@@ -708,8 +716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -725,8 +733,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -742,16 +750,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>5</v>
       </c>
     </row>

--- a/app/shiny/templates/template_dropshipment.xlsx
+++ b/app/shiny/templates/template_dropshipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\GitHub\ppe_allocatoR\app\shiny\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\ppe\distribute_2-26-2021\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F930DCF-17C5-41CB-9777-436813F220FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E9831-F1CB-4DB5-9EA9-AD5EE7CAE4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{923FFECB-4A25-480B-9F4B-77073757D37B}"/>
   </bookViews>
@@ -160,12 +160,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="1"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,16 +219,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -242,13 +261,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,8 +301,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>684287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E732D3E9-D2B7-4D7E-A038-A8EC306B32F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892550" y="19050"/>
+          <a:ext cx="2335287" cy="1274393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5A23C8D-B7C2-4941-A49F-2B3576CCCA85}" name="Table27" displayName="Table27" ref="A16:E21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5A23C8D-B7C2-4941-A49F-2B3576CCCA85}" name="Table27" displayName="Table27" ref="A16:E21" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Line" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Item"/>
@@ -575,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3FA63A-2A70-4AB1-86F6-D1E6A018A4A0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,32 +741,32 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
@@ -683,91 +776,95 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>